--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vwf-Gp1ba.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H2">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I2">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J2">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91891522752041</v>
+        <v>2.098778</v>
       </c>
       <c r="N2">
-        <v>1.91891522752041</v>
+        <v>6.296334</v>
       </c>
       <c r="O2">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792946</v>
       </c>
       <c r="P2">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792947</v>
       </c>
       <c r="Q2">
-        <v>50.48746935631567</v>
+        <v>60.17775928646532</v>
       </c>
       <c r="R2">
-        <v>50.48746935631567</v>
+        <v>541.5998335781879</v>
       </c>
       <c r="S2">
-        <v>0.2871268824429196</v>
+        <v>0.2998689032402593</v>
       </c>
       <c r="T2">
-        <v>0.2871268824429196</v>
+        <v>0.2998689032402594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H3">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I3">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J3">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.51859818738192</v>
+        <v>3.584366666666666</v>
       </c>
       <c r="N3">
-        <v>3.51859818738192</v>
+        <v>10.7531</v>
       </c>
       <c r="O3">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349202</v>
       </c>
       <c r="P3">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349203</v>
       </c>
       <c r="Q3">
-        <v>92.5758030448185</v>
+        <v>102.7736875749111</v>
       </c>
       <c r="R3">
-        <v>92.5758030448185</v>
+        <v>924.9631881742</v>
       </c>
       <c r="S3">
-        <v>0.5264871077279171</v>
+        <v>0.5121266285163451</v>
       </c>
       <c r="T3">
-        <v>0.5264871077279171</v>
+        <v>0.5121266285163452</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.3104219677045</v>
+        <v>28.67276066666667</v>
       </c>
       <c r="H4">
-        <v>26.3104219677045</v>
+        <v>86.018282</v>
       </c>
       <c r="I4">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="J4">
-        <v>0.954048659130309</v>
+        <v>0.9474462168692853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.938547524513633</v>
+        <v>0.9480173333333334</v>
       </c>
       <c r="N4">
-        <v>0.938547524513633</v>
+        <v>2.844052</v>
       </c>
       <c r="O4">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="P4">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="Q4">
-        <v>24.69358140669816</v>
+        <v>27.18227410651822</v>
       </c>
       <c r="R4">
-        <v>24.69358140669816</v>
+        <v>244.640466958664</v>
       </c>
       <c r="S4">
-        <v>0.1404346689594722</v>
+        <v>0.1354506851126808</v>
       </c>
       <c r="T4">
-        <v>0.1404346689594722</v>
+        <v>0.1354506851126808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H5">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I5">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J5">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.91891522752041</v>
+        <v>2.098778</v>
       </c>
       <c r="N5">
-        <v>1.91891522752041</v>
+        <v>6.296334</v>
       </c>
       <c r="O5">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792946</v>
       </c>
       <c r="P5">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792947</v>
       </c>
       <c r="Q5">
-        <v>0.8497787907616847</v>
+        <v>1.588677003026666</v>
       </c>
       <c r="R5">
-        <v>0.8497787907616847</v>
+        <v>14.29809302724</v>
       </c>
       <c r="S5">
-        <v>0.004832770152045548</v>
+        <v>0.007916460103355416</v>
       </c>
       <c r="T5">
-        <v>0.004832770152045548</v>
+        <v>0.007916460103355418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H6">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I6">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J6">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.51859818738192</v>
+        <v>3.584366666666666</v>
       </c>
       <c r="N6">
-        <v>3.51859818738192</v>
+        <v>10.7531</v>
       </c>
       <c r="O6">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349202</v>
       </c>
       <c r="P6">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349203</v>
       </c>
       <c r="Q6">
-        <v>1.558187704161028</v>
+        <v>2.713198296222222</v>
       </c>
       <c r="R6">
-        <v>1.558187704161028</v>
+        <v>24.418784666</v>
       </c>
       <c r="S6">
-        <v>0.008861556807276964</v>
+        <v>0.01352000817259553</v>
       </c>
       <c r="T6">
-        <v>0.008861556807276964</v>
+        <v>0.01352000817259554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.442843320316841</v>
+        <v>0.7569533333333333</v>
       </c>
       <c r="H7">
-        <v>0.442843320316841</v>
+        <v>2.27086</v>
       </c>
       <c r="I7">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="J7">
-        <v>0.01605805017006945</v>
+        <v>0.02501233070476559</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.938547524513633</v>
+        <v>0.9480173333333334</v>
       </c>
       <c r="N7">
-        <v>0.938547524513633</v>
+        <v>2.844052</v>
       </c>
       <c r="O7">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="P7">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="Q7">
-        <v>0.4156295020307689</v>
+        <v>0.7176048805244444</v>
       </c>
       <c r="R7">
-        <v>0.4156295020307689</v>
+        <v>6.45844392472</v>
       </c>
       <c r="S7">
-        <v>0.002363723210746932</v>
+        <v>0.003575862428814637</v>
       </c>
       <c r="T7">
-        <v>0.002363723210746932</v>
+        <v>0.003575862428814637</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H8">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I8">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J8">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.91891522752041</v>
+        <v>2.098778</v>
       </c>
       <c r="N8">
-        <v>1.91891522752041</v>
+        <v>6.296334</v>
       </c>
       <c r="O8">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792946</v>
       </c>
       <c r="P8">
-        <v>0.3009562245018598</v>
+        <v>0.3165022962792947</v>
       </c>
       <c r="Q8">
-        <v>1.581928325891016</v>
+        <v>1.749316071961333</v>
       </c>
       <c r="R8">
-        <v>1.581928325891016</v>
+        <v>15.743844647652</v>
       </c>
       <c r="S8">
-        <v>0.008996571906894657</v>
+        <v>0.008716932935679851</v>
       </c>
       <c r="T8">
-        <v>0.008996571906894657</v>
+        <v>0.008716932935679851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H9">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I9">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J9">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.51859818738192</v>
+        <v>3.584366666666666</v>
       </c>
       <c r="N9">
-        <v>3.51859818738192</v>
+        <v>10.7531</v>
       </c>
       <c r="O9">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349202</v>
       </c>
       <c r="P9">
-        <v>0.5518451314714407</v>
+        <v>0.5405337204349203</v>
       </c>
       <c r="Q9">
-        <v>2.900685793838197</v>
+        <v>2.987543331311111</v>
       </c>
       <c r="R9">
-        <v>2.900685793838197</v>
+        <v>26.8878899818</v>
       </c>
       <c r="S9">
-        <v>0.01649646693624664</v>
+        <v>0.01488708374597965</v>
       </c>
       <c r="T9">
-        <v>0.01649646693624664</v>
+        <v>0.01488708374597965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8243867697767751</v>
+        <v>0.8334926666666668</v>
       </c>
       <c r="H10">
-        <v>0.8243867697767751</v>
+        <v>2.500478</v>
       </c>
       <c r="I10">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594914</v>
       </c>
       <c r="J10">
-        <v>0.02989329069962153</v>
+        <v>0.02754145242594913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.938547524513633</v>
+        <v>0.9480173333333334</v>
       </c>
       <c r="N10">
-        <v>0.938547524513633</v>
+        <v>2.844052</v>
       </c>
       <c r="O10">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="P10">
-        <v>0.1471986440266994</v>
+        <v>0.1429639832857851</v>
       </c>
       <c r="Q10">
-        <v>0.7737261620157825</v>
+        <v>0.7901654952062224</v>
       </c>
       <c r="R10">
-        <v>0.7737261620157825</v>
+        <v>7.111489456856001</v>
       </c>
       <c r="S10">
-        <v>0.004400251856480234</v>
+        <v>0.003937435744289638</v>
       </c>
       <c r="T10">
-        <v>0.004400251856480234</v>
+        <v>0.003937435744289638</v>
       </c>
     </row>
   </sheetData>
